--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/108.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/108.xlsx
@@ -479,13 +479,13 @@
         <v>-7.152271414441834</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.6101425853974</v>
+        <v>-8.55273283743643</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.118952651863931</v>
+        <v>-2.145556211238318</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.70765759920378</v>
+        <v>-5.869465370024673</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.933237873300245</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.328896919105318</v>
+        <v>-9.260869313539709</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.043698095129689</v>
+        <v>-2.067866486175516</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.639629993638171</v>
+        <v>-5.79951319594133</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.625119049738606</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.916034332345365</v>
+        <v>-9.842180652015189</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.132686477544901</v>
+        <v>-2.158268837297634</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.493860293798393</v>
+        <v>-5.65509200329425</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.1481932220742</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.57737891809232</v>
+        <v>-10.50421912981275</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.019909380866273</v>
+        <v>-2.05211644585692</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.402332004631886</v>
+        <v>-5.544985736395334</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.543452118438239</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.27216124529703</v>
+        <v>-11.1943667818115</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.164199650484936</v>
+        <v>-2.184113043107202</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.930066456525144</v>
+        <v>-5.088993920720856</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.810649345237371</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.75665500425795</v>
+        <v>-11.6916255360431</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.93500579693768</v>
+        <v>-1.957118696437355</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.8983307144368</v>
+        <v>-5.021948237868378</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.987040962970829</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.36104807264339</v>
+        <v>-12.30100677181124</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.783881345235636</v>
+        <v>-1.806976167448441</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.496279186470234</v>
+        <v>-4.606293807249259</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.08842795151758</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.96957830872682</v>
+        <v>-12.91199836082891</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.704096851718157</v>
+        <v>-1.727230950839487</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.904376174995798</v>
+        <v>-4.015726210664678</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.13011950649924</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.57242648537694</v>
+        <v>-13.52412898019381</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.653573655051936</v>
+        <v>-1.663772558965641</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.532803528044771</v>
+        <v>-3.65059497671178</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.12855572575743</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.44172920946187</v>
+        <v>-14.39064304377345</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.47284750662475</v>
+        <v>-1.486908639876763</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.054083474637057</v>
+        <v>-3.158965912702125</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.08374680322143</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.09351641413436</v>
+        <v>-15.04707801595475</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.346598430321985</v>
+        <v>-1.352188843635402</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.648195901937866</v>
+        <v>-2.743586420442682</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.992035909619897</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.80751824191073</v>
+        <v>-15.77089907086242</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.175586770603359</v>
+        <v>-1.186833058744402</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.037688728125338</v>
+        <v>-2.1341920923717</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.857057922430608</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.4725417647562</v>
+        <v>-16.43335650235092</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9593673891722532</v>
+        <v>-0.9730095687333318</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.319916317130547</v>
+        <v>-1.426330554628097</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.664887327792801</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.08949035156686</v>
+        <v>-17.06139426966852</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7295974742999607</v>
+        <v>-0.7464210834515786</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.143654643972389</v>
+        <v>-1.250828235034759</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.409203530502158</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.92073375129089</v>
+        <v>-17.9030722347574</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5212727514824155</v>
+        <v>-0.5494342948949683</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6385928772471228</v>
+        <v>-0.7392465014943128</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.086279066346171</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.81317057449715</v>
+        <v>-18.78906764496553</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2317888433490104</v>
+        <v>-0.2531685738895491</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4282388474891101</v>
+        <v>-0.5228961970347895</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-8.685128853268049</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.54918056335046</v>
+        <v>-19.53462192259046</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1367387247180791</v>
+        <v>-0.1498179352569635</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01363180109732892</v>
+        <v>-0.1102268114635838</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.211602583727741</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.23108006455892</v>
+        <v>-20.21365420947659</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1027849557712993</v>
+        <v>0.08782045362320638</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1153535664993563</v>
+        <v>0.0337885197954029</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.672007221943181</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.67290600855866</v>
+        <v>-20.67591723821225</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1841536179326268</v>
+        <v>0.1749890059434185</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3638192898296336</v>
+        <v>0.2921913009825503</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.070792065047855</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.33275807178165</v>
+        <v>-21.33113462622928</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4244890211981922</v>
+        <v>0.4144472249185883</v>
       </c>
       <c r="G21" t="n">
-        <v>0.506656313832865</v>
+        <v>0.4408543997503498</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.430851220544348</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.75838883716616</v>
+        <v>-21.75772112972124</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5216731851923249</v>
+        <v>0.5179026019739077</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7173507434647627</v>
+        <v>0.6446360934818161</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.76814706462291</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.12218465622921</v>
+        <v>-22.13225263711449</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6705719454112754</v>
+        <v>0.6641698093216714</v>
       </c>
       <c r="G23" t="n">
-        <v>0.77186709249771</v>
+        <v>0.6980788736817419</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.098858059884678</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.39297275590463</v>
+        <v>-22.42404079054804</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8633299201500083</v>
+        <v>0.8536023391386058</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9629754370783854</v>
+        <v>0.8680693337787132</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.451042373819191</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.50763514419246</v>
+        <v>-22.54932103644052</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8584333988872027</v>
+        <v>0.860907844124289</v>
       </c>
       <c r="G25" t="n">
-        <v>1.075228841643345</v>
+        <v>0.9818938146846796</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.837387419908162</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.7169286974203</v>
+        <v>-22.77046312374011</v>
       </c>
       <c r="F26" t="n">
-        <v>1.018539170338671</v>
+        <v>1.022231199740038</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9162228236305816</v>
+        <v>0.8036682961002626</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.274018838162953</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.58580928446041</v>
+        <v>-22.64041727961325</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9728994026324138</v>
+        <v>0.9779137546207949</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8110916318115213</v>
+        <v>0.6917552914091882</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.775490448977252</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.69230207577501</v>
+        <v>-22.74862516260011</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9776257239582768</v>
+        <v>0.9776780931696438</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3679826421333025</v>
+        <v>0.25062323946007</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.342692459101063</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.45081454985937</v>
+        <v>-22.49934771649365</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9514018413662996</v>
+        <v>0.949804580419609</v>
       </c>
       <c r="G29" t="n">
-        <v>0.145334940006909</v>
+        <v>0.03016195190824478</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.983017798086304</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.31106730932679</v>
+        <v>-22.35690346157567</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8891872182624173</v>
+        <v>0.8872364651390001</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.3338564363031068</v>
+        <v>-0.4439757955048648</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.69561150334388</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.81733038455961</v>
+        <v>-21.87954500766349</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8745893005938927</v>
+        <v>0.8728349320131015</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6455448900560793</v>
+        <v>-0.7454653453441327</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.473043768745248</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.34523503638981</v>
+        <v>-21.41162610410021</v>
       </c>
       <c r="F32" t="n">
-        <v>0.838585467779146</v>
+        <v>0.8322487932037507</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.082945635695306</v>
+        <v>-1.171855464293467</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.317100511516324</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.1605157355959</v>
+        <v>-21.21267547011734</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7343052756447979</v>
+        <v>0.7295658620160931</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.499241589153669</v>
+        <v>-1.587444433398378</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.219441962755511</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.65562416880758</v>
+        <v>-20.71372780881916</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7028968411274971</v>
+        <v>0.6910875839642602</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.910339898383868</v>
+        <v>-1.986550193225555</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.175877975084069</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.27626160166572</v>
+        <v>-20.32876173606104</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6707683299539013</v>
+        <v>0.6522165368271755</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.108504994196234</v>
+        <v>-2.186548211435763</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.185831549660568</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.73121594206182</v>
+        <v>-19.78366370724578</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6861125088844042</v>
+        <v>0.6690401459787935</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.44085310183345</v>
+        <v>-2.512284706137907</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.241497151018492</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.34465260835702</v>
+        <v>-19.40168267953558</v>
       </c>
       <c r="F37" t="n">
-        <v>0.601483863315487</v>
+        <v>0.5903161289914947</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.667088094938476</v>
+        <v>-2.739907483344157</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.341872259498066</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.60921868082874</v>
+        <v>-18.68541588336759</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7843309648030332</v>
+        <v>0.7658577254933577</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.753916247384804</v>
+        <v>-2.822022406767463</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.482788412061708</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.18379739228969</v>
+        <v>-18.24637859987315</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8926174016069496</v>
+        <v>0.8666946419803319</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.666904802698692</v>
+        <v>-2.737760345678114</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.658042636786492</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.57154894219922</v>
+        <v>-17.63897430183411</v>
       </c>
       <c r="F40" t="n">
-        <v>0.780180704802206</v>
+        <v>0.7585391282048328</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.720674890469661</v>
+        <v>-2.793913232566277</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.866690227907847</v>
       </c>
       <c r="E41" t="n">
-        <v>-17.03354694152417</v>
+        <v>-17.09800034841399</v>
       </c>
       <c r="F41" t="n">
-        <v>0.948940488432055</v>
+        <v>0.9224678520860849</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.912778250066308</v>
+        <v>-2.972060197333644</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.100692452902635</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.38312133634722</v>
+        <v>-16.44952549636045</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9308338336019479</v>
+        <v>0.900865552397237</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.064112178613819</v>
+        <v>-3.124205848657342</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.356804398822209</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.81361925503497</v>
+        <v>-15.88004959965389</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9621637143021984</v>
+        <v>0.9289354496898976</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.094643428840725</v>
+        <v>-3.149552546958924</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.633987785545254</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.19795371390281</v>
+        <v>-15.27817025341406</v>
       </c>
       <c r="F44" t="n">
-        <v>1.058248124857626</v>
+        <v>1.015711232924858</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.276050377015681</v>
+        <v>-3.31814213065183</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.924266063415344</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.72822807254736</v>
+        <v>-14.78932984990969</v>
       </c>
       <c r="F45" t="n">
-        <v>1.028594058921116</v>
+        <v>0.9863321053480247</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.38086735356654</v>
+        <v>-3.419332539315531</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.229189824871141</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.2620766298677</v>
+        <v>-14.32683115972288</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8378130219114842</v>
+        <v>0.7968079294111982</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.416530786507402</v>
+        <v>-3.454249710994414</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.547266449518287</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.49704100561428</v>
+        <v>-13.559517474775</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8919889710705466</v>
+        <v>0.8492556945951528</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.284390173925861</v>
+        <v>-3.324321697593125</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.874625009884863</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.92763057042193</v>
+        <v>-12.9871743637461</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8143254306134277</v>
+        <v>0.7757685987445444</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.286550403894745</v>
+        <v>-3.336563000750139</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.216398192588824</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.50742001841389</v>
+        <v>-12.56126866000191</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7834406882097958</v>
+        <v>0.74175479596174</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.421584415404308</v>
+        <v>-3.466674306391213</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.570119164809787</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.9604628825951</v>
+        <v>-12.01466501635985</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7211344189860215</v>
+        <v>0.6846330786632892</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.587699553860128</v>
+        <v>-3.623048771532789</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.935386201958731</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.47429330887044</v>
+        <v>-11.52676725866008</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7349075215755173</v>
+        <v>0.6951985670565621</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.766383303044006</v>
+        <v>-3.799951967530191</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.316658260197133</v>
       </c>
       <c r="E52" t="n">
-        <v>-11.0138239256241</v>
+        <v>-11.06692630595014</v>
       </c>
       <c r="F52" t="n">
-        <v>0.669825684149297</v>
+        <v>0.6333374361294065</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.808239395229004</v>
+        <v>-3.847450842239974</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.704755726771783</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.40814781156016</v>
+        <v>-10.46588486709218</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6488125380883267</v>
+        <v>0.6119577055888678</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.963501014629033</v>
+        <v>-4.00382530738155</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.098780623219739</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.969228358791298</v>
+        <v>-10.02511939962263</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6534472132942977</v>
+        <v>0.6106615676075369</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.017218733188636</v>
+        <v>-4.063840423608022</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.49527153652785</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.47401200380301</v>
+        <v>-9.529732844697396</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5680853987662438</v>
+        <v>0.522576554088404</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.122925986332731</v>
+        <v>-4.175033351642801</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.879417244651489</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.172077315667124</v>
+        <v>-9.215805607158488</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5474388371848418</v>
+        <v>0.499154424304556</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.37344720120916</v>
+        <v>-4.428146842481891</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.247521434189792</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.656999937267937</v>
+        <v>-8.697795552922756</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5176669405227566</v>
+        <v>0.4720009882108162</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.340035644357075</v>
+        <v>-4.405562620079914</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.590009722203186</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.57798788961812</v>
+        <v>-8.604643818203874</v>
       </c>
       <c r="F58" t="n">
-        <v>0.4890602588135852</v>
+        <v>0.4371623703489831</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.396123069731029</v>
+        <v>-4.468117643057681</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.893562862565663</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.994450859659548</v>
+        <v>-8.029865538846416</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4684398818378667</v>
+        <v>0.4219360221440556</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.639417333438825</v>
+        <v>-4.708125738752203</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.156326800767362</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.905187538884659</v>
+        <v>-7.939358449301564</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6034477087417458</v>
+        <v>0.5464961913802374</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.700571480012528</v>
+        <v>-4.768245593401409</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.367944900277429</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.557966575219242</v>
+        <v>-7.598591990937118</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5516414663970358</v>
+        <v>0.5019823617183689</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.810586100791552</v>
+        <v>-4.872185385661873</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.520460368544951</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.281718985258822</v>
+        <v>-7.315261465139324</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5217517390093752</v>
+        <v>0.4753788023439814</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.000254292059637</v>
+        <v>-5.061513177056074</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.615266847228382</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.102943589955053</v>
+        <v>-7.134718608951921</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4864025213367148</v>
+        <v>0.4398593847343786</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.947832711481366</v>
+        <v>-5.011160180326795</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.642180011207916</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.88948668442355</v>
+        <v>-6.918433766006607</v>
       </c>
       <c r="F64" t="n">
-        <v>0.280591520664781</v>
+        <v>0.2348470145357901</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.961291598802661</v>
+        <v>-5.012574149033702</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.6011235764511</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.845116870092941</v>
+        <v>-6.866116923851069</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1958581366731299</v>
+        <v>0.1493935538878441</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.010597211304601</v>
+        <v>-5.065035006520498</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.495826763730687</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.549715241075075</v>
+        <v>-6.578531399629715</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2347291838102146</v>
+        <v>0.1891548776181662</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.979228053695826</v>
+        <v>-5.036114109543125</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.321427168804354</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.438142636257886</v>
+        <v>-6.466958794812525</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1133242595588888</v>
+        <v>0.06671566144234396</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.9588564304741</v>
+        <v>-5.001118384047191</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.084590755197633</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.230786743850628</v>
+        <v>-6.254549273508362</v>
       </c>
       <c r="F68" t="n">
-        <v>0.08096008693414193</v>
+        <v>0.03249238181407202</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.954130109148236</v>
+        <v>-4.995004278620105</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.791659027679284</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.245594138364621</v>
+        <v>-6.272629743732785</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.006679788288372374</v>
+        <v>-0.05351095555322652</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.830316201174033</v>
+        <v>-4.876165445725758</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.444553018902235</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.378572658328032</v>
+        <v>-6.402073341928931</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.03413434734747194</v>
+        <v>-0.08573111284671438</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.771505576808999</v>
+        <v>-4.814775637700904</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.058566373126547</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.402701772465334</v>
+        <v>-6.423165041806952</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.03969857605520552</v>
+        <v>-0.08959334218502356</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.72577416298285</v>
+        <v>-4.760586596238999</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.643028602135929</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.524015050596767</v>
+        <v>-6.540786290537018</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.158393393618294</v>
+        <v>-0.2041117151416015</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.613533850720732</v>
+        <v>-4.643070085931667</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.204524626190613</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.607491573515613</v>
+        <v>-6.634304609735468</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.1484694280642657</v>
+        <v>-0.199594870661206</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.3657096502297</v>
+        <v>-4.393452239951317</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.761041144253618</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.897263512311536</v>
+        <v>-6.91466318278819</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1663535137460635</v>
+        <v>-0.2131584964052342</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.071787451432949</v>
+        <v>-4.106508238569207</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.316458280378202</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.130162487563001</v>
+        <v>-7.150651941510302</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.3047260624802663</v>
+        <v>-0.3508371530888255</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.803067935606522</v>
+        <v>-3.836963907663751</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.87686199400789</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.399667541559932</v>
+        <v>-7.421204379734571</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.4079326857815929</v>
+        <v>-0.4512551158848645</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.44511128361089</v>
+        <v>-3.477894409926572</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.45226501688269</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.896873926580163</v>
+        <v>-7.918594056994587</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2884261454423174</v>
+        <v>-0.3346026975650852</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.323693267056722</v>
+        <v>-3.349563657471973</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.041110587376264</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.294303871643599</v>
+        <v>-8.321378753920289</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.3872599395945074</v>
+        <v>-0.424415895059326</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.34719395065762</v>
+        <v>-3.368154727507224</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.64851106499625</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.753817516782501</v>
+        <v>-8.781730306441061</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4307918465432466</v>
+        <v>-0.470919754753137</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.058979995899863</v>
+        <v>-3.088293661962487</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.277603054135228</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.324589551470391</v>
+        <v>-9.353314063905138</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.4840513345033883</v>
+        <v>-0.5282116719885303</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.682471550777505</v>
+        <v>-2.71497973873351</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.924224247815212</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.875998070255367</v>
+        <v>-9.914829840483927</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5383189297823429</v>
+        <v>-0.5709318561610824</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.541820941348842</v>
+        <v>-2.56911839277384</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.593517989997626</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.79015502387605</v>
+        <v>-10.82558279536576</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.5049859267473082</v>
+        <v>-0.5477584801312273</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.138722029154938</v>
+        <v>-2.169907894523929</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.284304807148354</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.56823058175983</v>
+        <v>-11.61838719394648</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.5895883877105421</v>
+        <v>-0.6246102978121594</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.898334256678005</v>
+        <v>-1.940439102616996</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.992733282975124</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.5084281257327</v>
+        <v>-12.56164833678432</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4847452265539998</v>
+        <v>-0.5249255039752571</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.689158534175748</v>
+        <v>-1.722962860113084</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.724092920010951</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.65005074892553</v>
+        <v>-13.7141113867301</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.57736017685637</v>
+        <v>-0.6186009308078071</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.5390683743982</v>
+        <v>-1.570057855224566</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.475736466062451</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.78681612776408</v>
+        <v>-14.84571839824901</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.6473123509397124</v>
+        <v>-0.6841802757420129</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.248838205002817</v>
+        <v>-1.292029712077671</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.248051183001778</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.90306586804965</v>
+        <v>-15.96995444326802</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6703155270326251</v>
+        <v>-0.7072620056519761</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.167836127321057</v>
+        <v>-1.21283437218807</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.043793557542098</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.22778434648401</v>
+        <v>-17.29993602744477</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8614893331275091</v>
+        <v>-0.8952936590648458</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.005282095238186</v>
+        <v>-1.055713645784515</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.8614884023993857</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.68477436052834</v>
+        <v>-18.77302957398442</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8867051084006735</v>
+        <v>-0.9160842359775068</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.048107017833472</v>
+        <v>-1.097962507054765</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.7046195325194646</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.23354141749317</v>
+        <v>-20.33055538155036</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9963793293058127</v>
+        <v>-1.01888499789074</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.9690949701836556</v>
+        <v>-1.025130026346243</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.5754615450245368</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.88529252861101</v>
+        <v>-21.984060861249</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.115362177531419</v>
+        <v>-1.136034923718505</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.952637945511606</v>
+        <v>-1.0175233983952</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4741259011056146</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.52992142698296</v>
+        <v>-23.63304949646724</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.265125029737924</v>
+        <v>-1.282105746523643</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.151745687128576</v>
+        <v>-1.211053819001595</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4042304725233622</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.58758629540568</v>
+        <v>-25.68995501132514</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.262493476866737</v>
+        <v>-1.290943050941808</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.372049867046301</v>
+        <v>-1.436058135639499</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3650290871234426</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.58425412488879</v>
+        <v>-27.69182048503642</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.256274633016917</v>
+        <v>-1.2892148669667</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.31720621044231</v>
+        <v>-1.394778104779537</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3551361171106372</v>
       </c>
       <c r="E95" t="n">
-        <v>-29.92824765646007</v>
+        <v>-30.02324540587963</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.58169691245086</v>
+        <v>-1.612594747157334</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.57175985459399</v>
+        <v>-1.641109782746613</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3752917520535143</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.05219885417044</v>
+        <v>-32.1561386464309</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.554189984180394</v>
+        <v>-1.597420768163773</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.818327194012217</v>
+        <v>-1.896383503554588</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4190532779657519</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.43004908089041</v>
+        <v>-34.53239161220419</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.727322596959379</v>
+        <v>-1.759438015830133</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.967579446407894</v>
+        <v>-2.050767938664221</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4858860791734493</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.46632112646975</v>
+        <v>-36.58396855980551</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.931326859839155</v>
+        <v>-1.971926090951347</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.17871901433641</v>
+        <v>-2.269252288486946</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.565286520679819</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.80103221532624</v>
+        <v>-38.90596702260267</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.017565858657604</v>
+        <v>-2.044941863899654</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.459077587389133</v>
+        <v>-2.541676926017582</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.6603576991064952</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.15149334450132</v>
+        <v>-41.25362639896962</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.434189119687011</v>
+        <v>-2.455555757924708</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.637643505847434</v>
+        <v>-2.718567029712143</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.7536776644373803</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.49849810572618</v>
+        <v>-43.5988767916137</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.611131592592939</v>
+        <v>-2.631280646666355</v>
       </c>
       <c r="G101" t="n">
-        <v>-2.839487538758325</v>
+        <v>-2.920267047291775</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.8655710432673092</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.83844611571936</v>
+        <v>-45.94901061321774</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.959831986479471</v>
+        <v>-2.971169920740406</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.209305817128561</v>
+        <v>-3.28257034383086</v>
       </c>
     </row>
   </sheetData>
